--- a/data/experimental_data_references.xlsx
+++ b/data/experimental_data_references.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxkong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxkong\Documents\GitHub\HRA-Publications-and-Dataset-Evidence\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F42C509-A419-4428-8AB0-34C06B8D3968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6DFB98-7D2F-4CB5-8AAB-21CCDA156B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="586">
   <si>
     <t>data source</t>
   </si>
@@ -1787,6 +1787,9 @@
   </si>
   <si>
     <t>Vasculature</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-021-03465-8</t>
   </si>
 </sst>
 </file>
@@ -1805,21 +1808,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2084,8 +2091,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="D458" sqref="D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9938,7 +9945,9 @@
         <v>501</v>
       </c>
       <c r="C459" s="3"/>
-      <c r="D459" s="3"/>
+      <c r="D459" s="3" t="s">
+        <v>585</v>
+      </c>
       <c r="E459" s="3" t="s">
         <v>502</v>
       </c>
@@ -9951,7 +9960,9 @@
         <v>503</v>
       </c>
       <c r="C460" s="3"/>
-      <c r="D460" s="3"/>
+      <c r="D460" s="3" t="s">
+        <v>585</v>
+      </c>
       <c r="E460" s="3" t="s">
         <v>502</v>
       </c>
@@ -9964,7 +9975,9 @@
         <v>504</v>
       </c>
       <c r="C461" s="3"/>
-      <c r="D461" s="3"/>
+      <c r="D461" s="3" t="s">
+        <v>585</v>
+      </c>
       <c r="E461" s="3" t="s">
         <v>502</v>
       </c>
@@ -9977,7 +9990,9 @@
         <v>505</v>
       </c>
       <c r="C462" s="3"/>
-      <c r="D462" s="3"/>
+      <c r="D462" s="3" t="s">
+        <v>585</v>
+      </c>
       <c r="E462" s="3" t="s">
         <v>502</v>
       </c>
@@ -12214,7 +12229,7 @@
   <customSheetViews>
     <customSheetView guid="{BFEEC155-1AE4-40D4-B4AB-E8FF1B981DDD}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:H382" xr:uid="{5FF3D142-C3B5-4211-A487-2D5C94F73C0B}">
+      <autoFilter ref="A1:H382" xr:uid="{AFBFE312-CEF5-40D3-B3A7-F1CD83681E79}">
         <filterColumn colId="3">
           <filters>
             <filter val="http://dx.doi.org/10.1002/0471684228.egp00471"/>
